--- a/BackTest/2020-01-23 BackTest WPX.xlsx
+++ b/BackTest/2020-01-23 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-107405.4687773715</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-107405.4687773715</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-49373.44552832454</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-49373.44552832454</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-37566.9781443338</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-15185.5730102143</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-13609.9942102143</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-13625.9942102143</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-13625.9942102143</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-13625.9942102143</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-19456.2841760948</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-19456.2841760948</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-36650.22047609481</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-26626.22047609481</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-25793.67397609481</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-22736.55747609481</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>26051.24442390519</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>26051.24442390519</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>24382.15792390519</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-7676.176376094809</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-5509.365976094809</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-18914.74217609481</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-32320.11847609481</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-34291.94427609481</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-34291.94427609481</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-35891.24677609481</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-33597.9965760948</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-33597.9965760948</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-26427.14177609481</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2672.086836405193</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>23112.4772364052</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>13666.6503364052</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>27991.2404364052</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>37874.7550364052</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>20251.8964364052</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>21151.8964364052</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-45282.5650635948</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-106455.8452237593</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-182974.7347528757</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-250683.5248528757</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-254582.2414528757</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-254582.2414528757</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-692752.3174181818</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-713378.1852181818</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-713378.1852181818</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-711454.7607181818</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-711254.7607181818</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-711254.7607181818</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-626092.3560332459</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-626116.4096332459</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-618101.3891332459</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-874545.1649332459</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-874545.1649332459</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-586308.2049680104</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-673388.9646811378</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-673380.8646811378</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-674599.3561811378</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-738893.2440811378</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-711902.9327811378</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-792442.5833811378</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-792427.0133811379</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-770180.8018431363</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-785396.8275431363</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-788340.6629431363</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-748068.0568431363</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-763680.1733431363</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-734958.8133431363</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-752796.1866431363</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-743532.7796431363</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-743546.8806431363</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-743554.8806431363</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-769590.4742684136</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-755837.2559684137</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-758597.2828684137</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-758597.2828684137</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-758593.2828684137</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-872936.6488684136</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-872916.6488684136</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-872916.6488684136</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-872916.6488684136</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-879239.9852684137</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-879239.9852684137</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-875219.7096684136</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-875219.7096684136</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-875219.7096684136</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-875629.7096684136</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-839263.0485684136</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-839263.0485684136</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-832842.0686684136</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-816245.6403684135</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-756133.9921221631</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-809579.992422163</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-798688.090622163</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-798688.090622163</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-798688.090622163</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-798688.090622163</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-806997.8993221631</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-815580.450822163</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-815580.450822163</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-815580.450822163</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-827833.3375221631</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-836597.519222163</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-825882.7958591246</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-835544.1185591246</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-840520.3916591246</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-843402.3606591247</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-843152.3606591247</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-844043.5621591246</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-845354.6335591247</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-860866.9918591246</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-877406.3818591246</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-877406.3818591246</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-874256.4994591246</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-900895.8007591247</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-900895.8007591247</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-900895.8007591247</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-887051.5380591247</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-887051.5380591247</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-887047.5380591247</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-891233.9048591247</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-891225.9646591247</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-896611.1712591248</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-896601.1712591248</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-901999.0624591248</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-935222.4275591249</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-938646.1477591249</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-938646.1477591249</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-938639.6738591249</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-938639.6738591249</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-950467.8597591249</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-940633.8597591249</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-920833.321759125</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-920833.321759125</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-917041.276859125</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-859952.276259125</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-828956.419559125</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-840256.449159125</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-840256.449159125</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-847894.920559125</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-798159.593659125</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-788284.1957591251</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-798508.917959125</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-785163.452259125</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-759582.6676591249</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-813747.3227591249</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-811521.0547591249</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-810203.0547591249</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-810580.0547591249</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-822408.7367591249</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-822408.7367591249</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-827052.0745591249</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-871187.7773591249</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-869553.7773591249</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-869553.7773591249</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-871340.2500591249</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-872979.0739591249</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-870745.5958591249</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-833467.2754591249</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-843481.8730591249</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-851320.299159125</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-845986.298859125</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-853896.286059125</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-880280.599859125</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-864517.9655591249</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-845231.0812591249</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-844045.4581591249</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-844263.570059125</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-867173.154259125</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-836055.663359125</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-816731.6176166913</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-846735.1671166912</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-794123.8345924353</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-795113.8145924353</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-797485.1601924353</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-808268.3514924352</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-798188.4254924352</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-786627.4213276608</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-789978.0873276608</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-734129.4232375363</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-736129.4232375363</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-730473.343818219</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-734696.0312280946</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-706951.0750572875</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-698783.4250572874</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-696893.5909572875</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-696203.6059572875</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-684575.3091572875</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-688145.9725572874</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-713764.9314572874</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-736026.7931572874</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-863942.0860238508</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-838368.6656238509</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-907955.0839238509</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-868881.0173238509</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-855216.1967238509</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-626783.1208238509</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-482784.7083339157</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-576556.8791506657</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-465856.8514506657</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-471733.9227020068</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-463858.2817806274</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-452148.7452806275</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-441565.2024806275</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-444983.8001806274</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-469594.8648806274</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-655314.4863806274</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-681348.4343806274</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-621775.2601806273</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-678867.9484806274</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-753032.5858806274</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-823195.4814806274</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-559346.9536806275</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>315.7675621205708</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>56670.45998101578</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>110482.1679261286</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-212982.6829738715</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-253801.2649821221</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-236033.6527821221</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-256694.7080821221</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-321162.142082122</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-326991.748782122</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-522184.9505821221</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-489635.2728821221</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-755452.6346821222</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-742786.5786821222</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-790435.4968821221</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-732888.1817821221</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-731692.5502821221</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-736953.9875821221</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-718355.871182122</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-718029.742582122</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-705921.374382122</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-706138.3844821219</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-693848.080182122</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-694788.328582122</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-702877.058682122</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-625015.7565821221</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-538921.989782122</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-538467.712782122</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-723239.910582122</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-756801.1437821221</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-930293.3852821221</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-954678.532582122</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-954678.532582122</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-968332.907982122</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-955360.647382122</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-955360.647382122</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-955360.647382122</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-1056503.967982122</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-1100520.683382122</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-1050304.559782122</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-1050304.559782122</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-1050304.559782122</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-1138872.094282122</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-1797289.964582122</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-1811922.297782122</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-1805371.794182122</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-1839390.577682122</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-2052100.427482122</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-2052100.427482122</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-2052100.427482122</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-1423083.132382122</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-1424369.736182122</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-1412584.707582122</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-1412453.065982122</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-1421238.916782122</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-1494096.504682122</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-1836109.806082122</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-1835973.693982122</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-2026571.158182122</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-2229295.828082121</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-2229295.828082121</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-2229295.828082121</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-2297790.660582121</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-2130246.986182122</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-2817762.523082121</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-2817762.523082121</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27181,11 +27181,17 @@
         <v>-2672846.205990271</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>106</v>
+      </c>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27214,11 +27220,17 @@
         <v>-2742111.936090271</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>109.8</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27263,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27300,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27337,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27374,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27379,11 +27407,17 @@
         <v>-2860848.75029027</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>107</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +27446,17 @@
         <v>-2843461.795690271</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>106.4</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27445,11 +27485,17 @@
         <v>-2907598.634790271</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>106.7</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27478,11 +27524,17 @@
         <v>-3123428.09869027</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>105.6</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27563,17 @@
         <v>-3001763.42569027</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>105.1</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +27602,17 @@
         <v>-2966159.53069027</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>105.2</v>
+      </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,7 +27641,7 @@
         <v>-2979670.12759027</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>106</v>
@@ -27585,7 +27649,7 @@
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L824" t="n">
@@ -27616,7 +27680,7 @@
         <v>-3119468.12469027</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>105.4</v>
@@ -27655,7 +27719,7 @@
         <v>-3115035.05669027</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>105</v>
@@ -27694,7 +27758,7 @@
         <v>-3108741.63069027</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>105.3</v>
@@ -27733,7 +27797,7 @@
         <v>-3095044.45809027</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>107.4</v>
@@ -27772,7 +27836,7 @@
         <v>-3095054.58499027</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>107.9</v>
@@ -27811,9 +27875,11 @@
         <v>-3082159.84979027</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>106.1</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -27848,9 +27914,11 @@
         <v>-3122526.87029027</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>107.2</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -27885,9 +27953,11 @@
         <v>-3106075.47869027</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>105.9</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -27922,9 +27992,11 @@
         <v>-3088694.73519027</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>106.1</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -27959,9 +28031,11 @@
         <v>-3010307.77389027</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>106.4</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -27996,7 +28070,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>107.3</v>
@@ -28035,7 +28109,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>107.2</v>
@@ -28074,7 +28148,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>107.2</v>
@@ -28113,7 +28187,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>107.2</v>
@@ -28152,7 +28226,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>107.2</v>
@@ -28191,7 +28265,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>107.1</v>
@@ -28230,7 +28304,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>107.1</v>
@@ -28269,7 +28343,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>107.1</v>
@@ -28308,7 +28382,7 @@
         <v>-3027730.148953482</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>107.1</v>
@@ -28347,7 +28421,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>107.2</v>
@@ -28386,9 +28460,11 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>107.1</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -28423,9 +28499,11 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>107.1</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -28460,9 +28538,11 @@
         <v>-3085770.548016694</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>107.1</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -28497,9 +28577,11 @@
         <v>-3058352.532716694</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>107.2</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -28534,9 +28616,11 @@
         <v>-3011787.350790185</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>107.6</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -28571,7 +28655,7 @@
         <v>-2964394.538690185</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>109.4</v>
@@ -28758,9 +28842,11 @@
         <v>-3080096.30467877</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>109</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -28795,7 +28881,7 @@
         <v>-3125860.84857877</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>108.8</v>
@@ -28834,9 +28920,11 @@
         <v>-3124944.02297877</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>107.6</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -28871,9 +28959,11 @@
         <v>-3115813.550850094</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>108.8</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29204,7 +29294,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29389,9 +29479,11 @@
         <v>-3248062.275236213</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>114.4</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29426,9 +29518,11 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>114</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29463,9 +29557,11 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>113.5</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29500,9 +29596,11 @@
         <v>-3253315.081936213</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>113.5</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -29537,9 +29635,11 @@
         <v>-3247068.474436213</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>112.1</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29574,9 +29674,11 @@
         <v>-3267187.370336213</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>113.8</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29611,9 +29713,11 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>113</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29648,9 +29752,11 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>113.5</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29685,9 +29791,11 @@
         <v>-3230563.807436212</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>113.5</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29796,9 +29904,11 @@
         <v>-3222466.303636212</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>113</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29833,9 +29943,11 @@
         <v>-3222406.303636212</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>113.1</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -29870,9 +29982,11 @@
         <v>-3270765.292536212</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>114.4</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29907,9 +30021,11 @@
         <v>-3358297.635236212</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>113.4</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29944,9 +30060,11 @@
         <v>-3360907.425236212</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>112.6</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -29981,9 +30099,11 @@
         <v>-3460627.227536212</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>112</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30018,9 +30138,11 @@
         <v>-3477294.244636212</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>111.3</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30055,9 +30177,11 @@
         <v>-3431647.566736212</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>111.2</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30092,9 +30216,11 @@
         <v>-3439874.040336212</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>113</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30129,9 +30255,11 @@
         <v>-3439790.400936212</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>110.7</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30166,9 +30294,11 @@
         <v>-3445990.400936212</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>113</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30203,9 +30333,11 @@
         <v>-3452240.400936212</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>111</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30240,9 +30372,11 @@
         <v>-3416670.367836212</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>110.9</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30277,9 +30411,11 @@
         <v>-3417201.543736212</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>113.9</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30314,9 +30450,11 @@
         <v>-3415795.278617775</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>113</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30351,9 +30489,11 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>113.9</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30388,9 +30528,11 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>113.1</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30425,9 +30567,11 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>113.1</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30462,9 +30606,11 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>111</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30499,9 +30645,11 @@
         <v>-3461402.002417775</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>111</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30536,9 +30684,11 @@
         <v>-3470524.502917775</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>112.4</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30573,9 +30723,11 @@
         <v>-3468524.502917775</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>111.1</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -30610,9 +30762,11 @@
         <v>-3468774.502917775</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>111.9</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -30647,9 +30801,11 @@
         <v>-3465855.214117775</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>111.1</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30684,9 +30840,11 @@
         <v>-3476182.257717775</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>111.2</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -30721,9 +30879,11 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>111</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -30758,9 +30918,11 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>111.2</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -30795,9 +30957,11 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>111.2</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30832,9 +30996,11 @@
         <v>-3576145.204017775</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>111.2</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30869,9 +31035,11 @@
         <v>-3462053.722317775</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>105.5</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -30906,9 +31074,11 @@
         <v>-3459734.918417775</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>108</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -30943,9 +31113,11 @@
         <v>-3491231.159917775</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>110</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -30980,9 +31152,11 @@
         <v>-3482004.184117774</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>105.6</v>
+      </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -31017,9 +31191,11 @@
         <v>-3480740.285205903</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>107.9</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31054,9 +31230,11 @@
         <v>-3483354.220205903</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>109.4</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31091,9 +31269,11 @@
         <v>-3472889.929917775</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>109.3</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31128,9 +31308,11 @@
         <v>-3470294.379817775</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>109.5</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31165,9 +31347,11 @@
         <v>-3470294.379817775</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>109.8</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31202,9 +31386,11 @@
         <v>-3468075.008788999</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>109.8</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31239,9 +31425,11 @@
         <v>-3467896.277788999</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>111.9</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31276,9 +31464,11 @@
         <v>-3422167.696288999</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>112.7</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31313,9 +31503,11 @@
         <v>-3425087.482888999</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>114.5</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31328,6 +31520,6 @@
       <c r="M924" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest WPX.xlsx
+++ b/BackTest/2020-01-23 BackTest WPX.xlsx
@@ -2101,7 +2101,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>23112.4772364052</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>13666.6503364052</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>39851.1848364052</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>20251.8964364052</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>21151.8964364052</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-64979.7253635948</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-65905.2140635948</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-65635.2084635948</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-59864.0601635948</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-56855.2181635948</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-45691.11515046739</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1251049.287245071</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1251009.31409674</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1258239.634596739</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-1541427.842048249</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-1589864.239331991</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-1609009.392531991</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-1509510.912384416</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-891115.1998567402</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-573863.7394134259</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-434176.3585662667</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-586308.2049680104</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-673388.9646811378</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-673380.8646811378</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-674599.3561811378</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-738893.2440811378</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-711902.9327811378</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-792442.5833811378</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-792427.0133811379</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-770180.8018431363</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-778293.4660431363</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-767706.1169431363</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-785396.8275431363</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-788340.6629431363</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-748068.0568431363</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-763680.1733431363</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-734958.8133431363</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-752796.1866431363</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-743532.7796431363</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-743546.8806431363</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-743554.8806431363</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-769590.4742684136</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-755837.2559684137</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-758597.2828684137</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-758593.2828684137</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-761430.2656684137</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-756133.9921221631</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-809579.992422163</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-880280.599859125</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-844263.570059125</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-867173.154259125</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-836055.663359125</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-816731.6176166913</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-795113.8145924353</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-797485.1601924353</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-808268.3514924352</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-798188.4254924352</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-786627.4213276608</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-789978.0873276608</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-734129.4232375363</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-736129.4232375363</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-730473.343818219</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-734696.0312280946</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-706951.0750572875</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-698783.4250572874</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-696893.5909572875</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-696203.6059572875</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-684575.3091572875</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-688145.9725572874</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-713764.9314572874</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-736026.7931572874</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-863942.0860238508</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-838368.6656238509</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-907955.0839238509</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-868881.0173238509</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-855216.1967238509</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-626783.1208238509</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-482784.7083339157</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-576556.8791506657</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-465856.8514506657</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-471733.9227020068</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-463858.2817806274</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-452148.7452806275</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-441565.2024806275</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-444983.8001806274</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-469594.8648806274</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-655314.4863806274</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-681348.4343806274</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>56670.45998101578</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>110482.1679261286</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-212982.6829738715</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-253801.2649821221</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-236033.6527821221</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-256694.7080821221</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-212566.3170821221</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-321162.142082122</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-320315.142082122</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-326991.748782122</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-489635.2728821221</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-755452.6346821222</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-742786.5786821222</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-790435.4968821221</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-732888.1817821221</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-731692.5502821221</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-736953.9875821221</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-718355.871182122</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-705921.374382122</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-732932.8778821219</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-706138.3844821219</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-693848.080182122</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-694788.328582122</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-538921.989782122</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-538467.712782122</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-542776.466682122</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-542799.677682122</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-519068.165582122</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-489490.706282122</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-499887.209082122</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-680957.483882122</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-723239.910582122</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -27676,10 +27676,14 @@
         <v>-3108741.63069027</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="J827" t="n">
+        <v>105.3</v>
+      </c>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
@@ -27709,11 +27713,19 @@
         <v>-3095044.45809027</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="J828" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +27754,19 @@
         <v>-3095054.58499027</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="J829" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,10 +27795,14 @@
         <v>-3082159.84979027</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="J830" t="n">
+        <v>106.1</v>
+      </c>
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
@@ -27808,11 +27832,19 @@
         <v>-3122526.87029027</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J831" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27841,11 +27873,19 @@
         <v>-3106075.47869027</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="J832" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27914,19 @@
         <v>-3088694.73519027</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="J833" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +27955,19 @@
         <v>-3010307.77389027</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="J834" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +27996,19 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="J835" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,11 +28037,19 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J836" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28006,11 +28078,19 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J837" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28119,19 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J838" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28160,19 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J839" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28201,19 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J840" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28242,19 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J841" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28283,19 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J842" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28324,19 @@
         <v>-3027730.148953482</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J843" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28365,19 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J844" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28406,19 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J845" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,11 +28447,19 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J846" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28488,19 @@
         <v>-3085770.548016694</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="J847" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28369,11 +28529,19 @@
         <v>-3058352.532716694</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="J848" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28402,11 +28570,19 @@
         <v>-3011787.350790185</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="J849" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28435,11 +28611,19 @@
         <v>-2964394.538690185</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="J850" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +28652,19 @@
         <v>-2988102.217690185</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="J851" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28504,8 +28696,14 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28534,11 +28732,19 @@
         <v>-3023054.80147877</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="J853" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28773,19 @@
         <v>-3058147.71397877</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="J854" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28600,11 +28814,19 @@
         <v>-3080096.30467877</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>109</v>
+      </c>
+      <c r="J855" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28855,19 @@
         <v>-3125860.84857877</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="J856" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +28896,19 @@
         <v>-3124944.02297877</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="J857" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28699,11 +28937,19 @@
         <v>-3115813.550850094</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="J858" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28732,11 +28978,19 @@
         <v>-3131531.237650094</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="J859" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28765,11 +29019,19 @@
         <v>-3112839.37387877</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="J860" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28798,11 +29060,19 @@
         <v>-3048736.92897877</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>110</v>
+      </c>
+      <c r="J861" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28831,11 +29101,19 @@
         <v>-3007221.64447877</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="J862" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +29142,19 @@
         <v>-2991063.528936212</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="J863" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29183,19 @@
         <v>-3119526.960736212</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="J864" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28930,11 +29224,19 @@
         <v>-3187668.675836212</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>114</v>
+      </c>
+      <c r="J865" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29265,19 @@
         <v>-3149855.797636212</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="J866" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -28996,11 +29306,19 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>114</v>
+      </c>
+      <c r="J867" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29347,19 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J868" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29388,19 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J869" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29095,11 +29429,19 @@
         <v>-3229115.073136212</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J870" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29128,11 +29470,19 @@
         <v>-3208706.132236212</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="J871" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29161,11 +29511,19 @@
         <v>-3248062.275236213</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="J872" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29194,11 +29552,19 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>114</v>
+      </c>
+      <c r="J873" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29227,11 +29593,19 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J874" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29260,11 +29634,19 @@
         <v>-3253315.081936213</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J875" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +29675,19 @@
         <v>-3247068.474436213</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="J876" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29326,11 +29716,19 @@
         <v>-3267187.370336213</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="J877" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29359,11 +29757,19 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>113</v>
+      </c>
+      <c r="J878" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29392,11 +29798,19 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J879" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29425,11 +29839,19 @@
         <v>-3230563.807436212</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="J880" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29458,11 +29880,19 @@
         <v>-3215372.077636213</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>114</v>
+      </c>
+      <c r="J881" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +29921,19 @@
         <v>-3235783.183836212</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="J882" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +29962,19 @@
         <v>-3222466.303636212</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>113</v>
+      </c>
+      <c r="J883" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +30003,19 @@
         <v>-3222406.303636212</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="J884" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +30044,19 @@
         <v>-3270765.292536212</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="J885" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +30085,19 @@
         <v>-3358297.635236212</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="J886" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +30126,19 @@
         <v>-3360907.425236212</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="J887" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +30167,19 @@
         <v>-3460627.227536212</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>112</v>
+      </c>
+      <c r="J888" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +30208,19 @@
         <v>-3477294.244636212</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="J889" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30249,19 @@
         <v>-3431647.566736212</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="J890" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29788,11 +30290,19 @@
         <v>-3439874.040336212</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>113</v>
+      </c>
+      <c r="J891" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29821,11 +30331,19 @@
         <v>-3439790.400936212</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="J892" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30372,19 @@
         <v>-3445990.400936212</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>113</v>
+      </c>
+      <c r="J893" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29887,11 +30413,19 @@
         <v>-3452240.400936212</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>111</v>
+      </c>
+      <c r="J894" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29920,11 +30454,19 @@
         <v>-3416670.367836212</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="J895" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,11 +30495,19 @@
         <v>-3417201.543736212</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="J896" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29986,11 +30536,19 @@
         <v>-3415795.278617775</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>113</v>
+      </c>
+      <c r="J897" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30019,11 +30577,19 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="J898" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30052,11 +30618,19 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="J899" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30085,11 +30659,19 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="J900" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30118,11 +30700,19 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>111</v>
+      </c>
+      <c r="J901" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30151,11 +30741,19 @@
         <v>-3461402.002417775</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>111</v>
+      </c>
+      <c r="J902" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30184,11 +30782,19 @@
         <v>-3470524.502917775</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="J903" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30217,11 +30823,19 @@
         <v>-3468524.502917775</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="J904" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30250,11 +30864,19 @@
         <v>-3468774.502917775</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="J905" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30283,11 +30905,19 @@
         <v>-3465855.214117775</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30316,11 +30946,19 @@
         <v>-3476182.257717775</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="J907" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30349,11 +30987,19 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>111</v>
+      </c>
+      <c r="J908" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30382,11 +31028,19 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="J909" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +31069,19 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="J910" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +31110,19 @@
         <v>-3576145.204017775</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="J911" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30481,11 +31151,19 @@
         <v>-3462053.722317775</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="J912" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30514,11 +31192,19 @@
         <v>-3459734.918417775</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>108</v>
+      </c>
+      <c r="J913" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,11 +31233,19 @@
         <v>-3491231.159917775</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>110</v>
+      </c>
+      <c r="J914" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30586,9 +31280,13 @@
         <v>105.6</v>
       </c>
       <c r="J915" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="K915" t="inlineStr"/>
+        <v>106.1</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30623,11 +31321,11 @@
         <v>107.9</v>
       </c>
       <c r="J916" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L916" t="n">
@@ -30664,11 +31362,11 @@
         <v>109.4</v>
       </c>
       <c r="J917" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L917" t="n">
@@ -30705,11 +31403,11 @@
         <v>109.3</v>
       </c>
       <c r="J918" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L918" t="n">
@@ -30746,7 +31444,7 @@
         <v>109.5</v>
       </c>
       <c r="J919" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -30787,7 +31485,7 @@
         <v>109.8</v>
       </c>
       <c r="J920" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -30822,11 +31520,13 @@
         <v>-3468075.008788999</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>109.8</v>
+      </c>
       <c r="J921" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -30861,11 +31561,13 @@
         <v>-3467896.277788999</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>111.9</v>
+      </c>
       <c r="J922" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -30900,11 +31602,13 @@
         <v>-3422167.696288999</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>112.7</v>
+      </c>
       <c r="J923" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -30939,11 +31643,13 @@
         <v>-3425087.482888999</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>114.5</v>
+      </c>
       <c r="J924" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
